--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010991</t>
+          <t>000824</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合C</t>
+          <t>圆信永丰双红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.85</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000824</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000825</t>
+          <t>002932</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
+          <t>圆信永丰强化收益债券A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>20.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>001487</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>宝盈优势产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>010991</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>长盛同鑫行业配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>86.85</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001487</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宝盈优势产业灵活配置混合</t>
+          <t>长盛同鑫行业配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002932</t>
+          <t>000825</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>圆信永丰强化收益债券A</t>
+          <t>圆信永丰双红利灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>20.10</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.67</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -772,15 +872,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.79</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>164510</t>
+          <t>009847</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富兰克林国海恒利债券（LOF）C</t>
+          <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.79</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009847</t>
+          <t>080007</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合A</t>
+          <t>长盛同鑫行业配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -856,15 +986,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.71</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>080007</t>
+          <t>164510</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛同鑫行业配置混合</t>
+          <t>富兰克林国海恒利债券（LOF）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家瑞隆混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,1099 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6708</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006967</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006968</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通行业龙头精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2557,7 +2558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2568,17 +2569,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2588,14 +2609,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.55</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2604,14 +2647,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7549</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2620,14 +2685,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -2636,14 +2723,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.46</v>
+          <t>009864</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商景气优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3390</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2652,13 +2761,3471 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实农业产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1385</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9975</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9971</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000294</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安生态优先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6393</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5363</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4578</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4468</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003857</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4189</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3807</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009865</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商景气优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3617</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006364</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商丰韵混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2953</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008075</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商核心优选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2671</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2157</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003858</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源周期优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1559</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014307</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000739</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0868</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002662</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006365</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商丰韵混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>69.36</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001515</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安新鑫先锋混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010257</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘多利一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002663</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源沪港深大消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008076</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商核心优选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>54.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>970046</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014308</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实多元动力混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012021</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012022</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银安智混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>22.56</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007257</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>凯石沣混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>970047</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东海证券海睿健行灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>77.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007258</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>凯石沣混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>72.94</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>673120</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西部利得新富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22.53</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>92</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6108,7 +6109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6119,17 +6120,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6139,14 +6160,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>92</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.58</v>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1630</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6155,14 +6198,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.55</v>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6171,14 +6236,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.28</v>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6187,14 +6274,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7573</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6203,14 +6312,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.46</v>
+          <t>005106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华农业产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -6219,13 +6350,1397 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3789</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3147</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2584</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2308</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013626</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013627</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏周期驱动混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014996</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华农业产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014995</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006882</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006883</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴健康消费混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006538</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东海核心价值精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.109999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>92</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.78</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>9.109999999999999</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>22.58</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D4" t="n">
-        <v>6.55</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -600,6 +617,1274 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2588</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>040004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安宝利配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5834</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5408</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014915</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3497</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通匠心优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002844</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006522</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006523</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通新兴蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>34.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>53.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5647,7 +6932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6803,7 +8088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7049,7 +8334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7143,7 +8428,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7389,7 +8674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
+++ b/数据整理/stocks/A股/上证主板/603363-傲农生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>6.64</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>9.109999999999999</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>22.58</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D5" t="n">
-        <v>6.55</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>0.28</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.46</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.78</v>
       </c>
     </row>
@@ -616,7 +633,687 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002932</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002933</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰强化收益债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>217005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005959</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通新视野灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015271</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通多策略升级混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016234</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1884,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3382,7 +4079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6932,7 +7629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8088,7 +8785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8334,7 +9031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8428,7 +9125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8672,364 +9369,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000824</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2892</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2835</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002932</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1401</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001487</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>宝盈优势产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010991</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>080007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长盛同鑫行业配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000825</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002933</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>圆信永丰强化收益债券C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>